--- a/document/01_設計書/【技術研修】メッセージ一覧.xlsx
+++ b/document/01_設計書/【技術研修】メッセージ一覧.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\9月研修\ソース\共通\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\temp\wiss1tool設計書(藤田変更)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71946C9E-627B-49E6-BBC9-FDD88B85ABCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6C7152-40CC-4836-AC0C-76C821032DDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="915" windowWidth="22740" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2550" windowWidth="16770" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="メッセージ一覧" sheetId="2" r:id="rId1"/>
-    <sheet name="メッセージID命名規約" sheetId="3" r:id="rId2"/>
+    <sheet name="メッセージ一覧" sheetId="4" r:id="rId1"/>
+    <sheet name="メッセージ一覧_202001" sheetId="2" r:id="rId2"/>
+    <sheet name="メッセージID命名規約" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">メッセージ一覧!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">メッセージ一覧_202001!$A$1:$L$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -320,6 +322,24 @@
   <si>
     <t>%1で入力してください</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I06</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>%1を対象にしますか</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤田 昂平</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウヘイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -575,7 +595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,36 +612,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,26 +669,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,371 +994,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B47FB0-55E3-4CDA-92C9-BAC54AFED76B}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="22" t="s">
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="18">
         <v>44122</v>
       </c>
-      <c r="L3" s="25"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="22" t="s">
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" s="31" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="8" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="8" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="8" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="8" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="8" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="8" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="8" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="8" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="8" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:I6"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:L4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:I6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,6 +1367,405 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="18">
+        <v>44209</v>
+      </c>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:I6"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="J8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E142CC-1F66-4850-ACF7-2E7172D0F0C9}">
   <dimension ref="B2:H27"/>
   <sheetViews>
